--- a/uploads/files/teachers.xlsx
+++ b/uploads/files/teachers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WorkStation/chefk/Chefk-Core/uploads/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB4B449-86BB-C440-A8CF-F562629D1581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB8E39-DD04-5943-A51D-FF2FE64A7FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16040" xr2:uid="{717462F6-9A81-D54E-AA27-C69D0CF3C48D}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15880" xr2:uid="{717462F6-9A81-D54E-AA27-C69D0CF3C48D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>first_name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>email@yopmail.com</t>
+  </si>
+  <si>
+    <t>+1234567890</t>
   </si>
 </sst>
 </file>
@@ -120,11 +123,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,12 +448,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="5" customWidth="1"/>
+    <col min="5" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -461,7 +468,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -484,8 +491,8 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>9000000011</v>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -501,6 +508,11 @@
       <c r="C4" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Acceptable Fromate " prompt="Minimum 6 digits and maximum 18 digits, + is optional. E.g 12345678..., +123456789..." sqref="D2:D1048576" xr:uid="{59227D0B-D8BE-2642-AF7C-EEFD420CFE3C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Acceptable Value" prompt="active/inactive_x000a_" sqref="G2:G1048576" xr:uid="{7106BFB7-A428-B644-B291-74C69D6A4376}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Acceptable Value" prompt="male/female_x000a_" sqref="F2:F1048576" xr:uid="{C685E308-C633-6545-8166-ECFC1226D1C2}"/>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{69A4D4B0-FF87-0545-840B-9E9131930AFC}"/>
   </hyperlinks>
